--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmdc\Google Drive\PPE\Cenergia - compartilhadas\Projeto EPS (2019-2020)\Variáveis EPS Brasil\Eduardo_Elec_High_2020_02_02\revisão 26 de abril de 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\elec\EIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6087B098-637A-464F-9AA6-A0B0C3D121FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,11 +19,19 @@
     <sheet name="EPE Integracao Energetica" sheetId="11" r:id="rId5"/>
     <sheet name="EIaE-BIE" sheetId="3" r:id="rId6"/>
     <sheet name="EIaE-BEE" sheetId="5" r:id="rId7"/>
+    <sheet name="EIaE-IEP" sheetId="13" r:id="rId8"/>
+    <sheet name="EIaE-BEEP" sheetId="14" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="lignite_multiplier">'[2]Hard Coal and Lig Multipliers'!$N$16</definedName>
+    <definedName name="nonlignite_multiplier">'[2]Hard Coal and Lig Multipliers'!$N$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Exchanges GWh'!$A$1:$K$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>EIaE BAU Imported Electricity</t>
   </si>
@@ -312,17 +319,26 @@
   </si>
   <si>
     <t>Notes on the Brazilian case:</t>
+  </si>
+  <si>
+    <t>Unit: 2012 USD/MWh</t>
+  </si>
+  <si>
+    <t>Imported Electricity Price</t>
+  </si>
+  <si>
+    <t>Exported Electricity Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -774,7 +790,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -797,7 +813,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
@@ -806,11 +822,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -829,60 +846,60 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="10" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="5" xfId="12" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="17" fillId="7" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="8" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="10" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="21" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="10" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="22" fillId="8" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="22" fillId="9" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="5" xfId="12" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="5" borderId="5" xfId="12" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -893,10 +910,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="10" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="7" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="7" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -912,27 +929,32 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="27" fillId="12" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="12" borderId="0" xfId="10" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="12" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="13" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="13" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="14" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="28" fillId="14" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,37 +994,35 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8"/>
+  <cellStyles count="25">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Comma" xfId="24" builtinId="3"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="14" xr:uid="{44AA2060-9F6D-4500-901F-E33B41F5DE8E}"/>
-    <cellStyle name="Normal 2 3" xfId="15" xr:uid="{843F1C80-7C90-4D9D-AF92-796E5FEDCC91}"/>
-    <cellStyle name="Normal 2 4" xfId="16" xr:uid="{5B4ED89E-F447-4D61-A670-94EABEA5CE0D}"/>
-    <cellStyle name="Normal 2 5" xfId="17" xr:uid="{B7145F8B-15C7-4D23-9B37-3C2D682D75BB}"/>
-    <cellStyle name="Normal 2 6" xfId="13" xr:uid="{961B74FF-E4B7-4FD5-BC5D-6BA6B5D08CAB}"/>
-    <cellStyle name="Normal 3" xfId="10" xr:uid="{C147A80C-3C3A-4880-BBCF-956975518290}"/>
-    <cellStyle name="Normal 3 2" xfId="18" xr:uid="{1F1C9971-A6DC-43FE-9D51-4132CCE34BF8}"/>
-    <cellStyle name="Normal 8" xfId="19" xr:uid="{C579CADA-B9AF-4D0E-B861-68FE72129602}"/>
-    <cellStyle name="Normal 9" xfId="20" xr:uid="{1EBE8BB1-66D9-4561-891F-9932EE27B6D3}"/>
-    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Porcentagem" xfId="23" builtinId="5"/>
-    <cellStyle name="Porcentagem 2" xfId="11" xr:uid="{C1D6DD0E-E0E1-4999-8BB8-761172B5D4E4}"/>
-    <cellStyle name="Separador de milhares 2" xfId="21" xr:uid="{17595CAC-2122-42DB-AF16-50FFC5C3C482}"/>
-    <cellStyle name="Separador de milhares 3 2" xfId="22" xr:uid="{9CB5FC9F-3D09-4F25-B201-B95DC1E7E847}"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Vírgula 2" xfId="12" xr:uid="{2DD2FC23-5488-46E3-A7E6-7A1080359BC5}"/>
+    <cellStyle name="Normal 2" xfId="7"/>
+    <cellStyle name="Normal 2 2" xfId="8"/>
+    <cellStyle name="Normal 2 2 2" xfId="14"/>
+    <cellStyle name="Normal 2 3" xfId="15"/>
+    <cellStyle name="Normal 2 4" xfId="16"/>
+    <cellStyle name="Normal 2 5" xfId="17"/>
+    <cellStyle name="Normal 2 6" xfId="13"/>
+    <cellStyle name="Normal 3" xfId="10"/>
+    <cellStyle name="Normal 3 2" xfId="18"/>
+    <cellStyle name="Normal 8" xfId="19"/>
+    <cellStyle name="Normal 9" xfId="20"/>
+    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Percent" xfId="23" builtinId="5"/>
+    <cellStyle name="Porcentagem 2" xfId="11"/>
+    <cellStyle name="Separador de milhares 2" xfId="21"/>
+    <cellStyle name="Separador de milhares 3 2" xfId="22"/>
+    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Vírgula 2" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1597,8 +1617,337 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO Table 10"/>
+      <sheetName val="Canada Electricity Generation"/>
+      <sheetName val="Canada Elec Mix"/>
+      <sheetName val="AEO Table 3"/>
+      <sheetName val="EIaE-BIE"/>
+      <sheetName val="EIaE-BEE"/>
+      <sheetName val="EIaE-IEP"/>
+      <sheetName val="EIaE-BEEP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="51">
+          <cell r="A51">
+            <v>2.931E-7</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>0.91400000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>ref2020.d112119a</v>
+          </cell>
+          <cell r="C1">
+            <v>2019</v>
+          </cell>
+          <cell r="D1">
+            <v>2020</v>
+          </cell>
+          <cell r="E1">
+            <v>2021</v>
+          </cell>
+          <cell r="F1">
+            <v>2022</v>
+          </cell>
+          <cell r="G1">
+            <v>2023</v>
+          </cell>
+          <cell r="H1">
+            <v>2024</v>
+          </cell>
+          <cell r="I1">
+            <v>2025</v>
+          </cell>
+          <cell r="J1">
+            <v>2026</v>
+          </cell>
+          <cell r="K1">
+            <v>2027</v>
+          </cell>
+          <cell r="L1">
+            <v>2028</v>
+          </cell>
+          <cell r="M1">
+            <v>2029</v>
+          </cell>
+          <cell r="N1">
+            <v>2030</v>
+          </cell>
+          <cell r="O1">
+            <v>2031</v>
+          </cell>
+          <cell r="P1">
+            <v>2032</v>
+          </cell>
+          <cell r="Q1">
+            <v>2033</v>
+          </cell>
+          <cell r="R1">
+            <v>2034</v>
+          </cell>
+          <cell r="S1">
+            <v>2035</v>
+          </cell>
+          <cell r="T1">
+            <v>2036</v>
+          </cell>
+          <cell r="U1">
+            <v>2037</v>
+          </cell>
+          <cell r="V1">
+            <v>2038</v>
+          </cell>
+          <cell r="W1">
+            <v>2039</v>
+          </cell>
+          <cell r="X1">
+            <v>2040</v>
+          </cell>
+          <cell r="Y1">
+            <v>2041</v>
+          </cell>
+          <cell r="Z1">
+            <v>2042</v>
+          </cell>
+          <cell r="AA1">
+            <v>2043</v>
+          </cell>
+          <cell r="AB1">
+            <v>2044</v>
+          </cell>
+          <cell r="AC1">
+            <v>2045</v>
+          </cell>
+          <cell r="AD1">
+            <v>2046</v>
+          </cell>
+          <cell r="AE1">
+            <v>2047</v>
+          </cell>
+          <cell r="AF1">
+            <v>2048</v>
+          </cell>
+          <cell r="AG1">
+            <v>2049</v>
+          </cell>
+          <cell r="AH1">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>PRC000:ha_Electricity</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v xml:space="preserve">   Electricity</v>
+          </cell>
+          <cell r="C67">
+            <v>30.454449</v>
+          </cell>
+          <cell r="D67">
+            <v>29.931808</v>
+          </cell>
+          <cell r="E67">
+            <v>29.732624000000001</v>
+          </cell>
+          <cell r="F67">
+            <v>29.657565999999999</v>
+          </cell>
+          <cell r="G67">
+            <v>29.663188999999999</v>
+          </cell>
+          <cell r="H67">
+            <v>29.849364999999999</v>
+          </cell>
+          <cell r="I67">
+            <v>30.250845000000002</v>
+          </cell>
+          <cell r="J67">
+            <v>30.593702</v>
+          </cell>
+          <cell r="K67">
+            <v>30.753353000000001</v>
+          </cell>
+          <cell r="L67">
+            <v>30.631550000000001</v>
+          </cell>
+          <cell r="M67">
+            <v>30.452465</v>
+          </cell>
+          <cell r="N67">
+            <v>30.394573000000001</v>
+          </cell>
+          <cell r="O67">
+            <v>30.270491</v>
+          </cell>
+          <cell r="P67">
+            <v>30.131779000000002</v>
+          </cell>
+          <cell r="Q67">
+            <v>30.234314000000001</v>
+          </cell>
+          <cell r="R67">
+            <v>30.257355</v>
+          </cell>
+          <cell r="S67">
+            <v>30.084644000000001</v>
+          </cell>
+          <cell r="T67">
+            <v>29.993071</v>
+          </cell>
+          <cell r="U67">
+            <v>29.893633000000001</v>
+          </cell>
+          <cell r="V67">
+            <v>29.942001000000001</v>
+          </cell>
+          <cell r="W67">
+            <v>29.852777</v>
+          </cell>
+          <cell r="X67">
+            <v>29.694433</v>
+          </cell>
+          <cell r="Y67">
+            <v>29.642439</v>
+          </cell>
+          <cell r="Z67">
+            <v>29.567022000000001</v>
+          </cell>
+          <cell r="AA67">
+            <v>29.472882999999999</v>
+          </cell>
+          <cell r="AB67">
+            <v>29.460825</v>
+          </cell>
+          <cell r="AC67">
+            <v>29.398705</v>
+          </cell>
+          <cell r="AD67">
+            <v>29.313385</v>
+          </cell>
+          <cell r="AE67">
+            <v>29.319500000000001</v>
+          </cell>
+          <cell r="AF67">
+            <v>29.242495999999999</v>
+          </cell>
+          <cell r="AG67">
+            <v>29.110025</v>
+          </cell>
+          <cell r="AH67">
+            <v>29.024152999999998</v>
+          </cell>
+          <cell r="AI67">
+            <v>-1.5510000000000001E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO Table 2"/>
+      <sheetName val="AEO Table 3"/>
+      <sheetName val="AEO Table 12"/>
+      <sheetName val="Natural Gas Adjustment"/>
+      <sheetName val="Hard Coal and Lig Multipliers"/>
+      <sheetName val="Hydrogen"/>
+      <sheetName val="Other Fuels"/>
+      <sheetName val="BFCpUEbS-electricity"/>
+      <sheetName val="BFCpUEbS-coal"/>
+      <sheetName val="BFCpUEbS-natural-gas"/>
+      <sheetName val="BFCpUEbS-nuclear"/>
+      <sheetName val="BFCpUEbS-hydro"/>
+      <sheetName val="BFCpUEbS-wind"/>
+      <sheetName val="BFCpUEbS-solar"/>
+      <sheetName val="BFCpUEbS-biomass"/>
+      <sheetName val="BFCpUEbS-petroleum-gasoline"/>
+      <sheetName val="BFCpUEbS-petroleum-diesel"/>
+      <sheetName val="BFCpUEbS-biofuel-gasoline"/>
+      <sheetName val="BFCpUEbS-biofuel-diesel"/>
+      <sheetName val="BFCpUEbS-jet-fuel-or-kerosene"/>
+      <sheetName val="BFCpUEbS-heat"/>
+      <sheetName val="BFCpUEbS-lignite"/>
+      <sheetName val="BFCpUEbS-geothermal"/>
+      <sheetName val="BFCpUEbS-crude-oil"/>
+      <sheetName val="BFCpUEbS-heavy-fuel-oil"/>
+      <sheetName val="BFCpUEbS-lpg-propane-or-butane"/>
+      <sheetName val="BFCpUEbS-municipal-solid-waste"/>
+      <sheetName val="BFCpUEbS-hydrogen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="16">
+          <cell r="N16">
+            <v>0.92062879123815489</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>1.0036394752510358</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1673,23 +2022,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1725,23 +2057,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1917,115 +2232,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="70.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="85"/>
+    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="72" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="72" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="72" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="74"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{9F7E4084-E37F-43B4-A08A-189EDCE8C2C7}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{1ABD6448-C03C-40F7-AD72-82DF04CA2E3D}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2033,20 +2348,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258E893C-9DE3-43FB-9A49-BD0F67B8F616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2369,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2063,7 +2378,7 @@
         <v>0.38778020477815695</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2071,7 +2386,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2395,7 @@
         <v>0.28395904436860064</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2404,7 @@
         <v>1.2969283276450508E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2098,7 +2413,7 @@
         <v>1.2969283276450508E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2106,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2122,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2131,7 +2446,7 @@
         <v>4.368600682593856E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2455,7 @@
         <v>0.1940841865756347</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2169,7 +2484,7 @@
         <v>0.58225255972696233</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2187,7 +2502,7 @@
         <v>0.28395904436860064</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2520,7 @@
         <v>4.368600682593856E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2538,7 @@
         <v>4.7098976109215013E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>76</v>
       </c>
@@ -2235,7 +2550,7 @@
         <v>2.5938566552901016E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>77</v>
       </c>
@@ -2247,7 +2562,7 @@
         <v>1.3651877133105799E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>78</v>
       </c>
@@ -2266,32 +2581,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39295D3-0044-444C-9661-4CB152D2FB5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="11.53125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.53125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.19921875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12.46484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>52</v>
       </c>
@@ -2301,14 +2616,14 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
       <c r="K1" s="54"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -2325,7 +2640,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="18"/>
@@ -2340,7 +2655,7 @@
       <c r="L3" s="53"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A4" s="51" t="s">
         <v>32</v>
       </c>
@@ -2359,22 +2674,22 @@
       <c r="L4" s="18"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="23"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="75"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="22" t="s">
         <v>32</v>
       </c>
@@ -2385,20 +2700,20 @@
       <c r="M5" s="47"/>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="51" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="21">
         <v>38070.97</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="22" t="s">
         <v>31</v>
       </c>
@@ -2407,20 +2722,20 @@
       <c r="M6" s="47"/>
       <c r="N6" s="49"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="21">
         <v>11.52</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="22" t="s">
         <v>30</v>
       </c>
@@ -2431,22 +2746,22 @@
       <c r="M7" s="47"/>
       <c r="N7" s="46"/>
     </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="21">
         <v>38082.49</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="11"/>
       <c r="F8" s="26">
         <v>12054.2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
       <c r="J8" s="22" t="s">
         <v>48</v>
       </c>
@@ -2457,11 +2772,11 @@
       <c r="M8" s="47"/>
       <c r="N8" s="46"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="76">
         <f>F8-E10</f>
         <v>4369.7000000000007</v>
       </c>
@@ -2482,11 +2797,11 @@
       <c r="M9" s="47"/>
       <c r="N9" s="49"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="45">
@@ -2499,7 +2814,7 @@
       <c r="J10" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="76">
         <f>F8+I14</f>
         <v>17388.300000000003</v>
       </c>
@@ -2507,7 +2822,7 @@
       <c r="M10" s="47"/>
       <c r="N10" s="46"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
@@ -2525,21 +2840,21 @@
       <c r="J11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="73"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="11"/>
       <c r="M11" s="47"/>
       <c r="N11" s="46"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="16" t="s">
@@ -2552,14 +2867,14 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="20"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -2567,14 +2882,14 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="11"/>
       <c r="I14" s="45">
         <v>5334.1</v>
@@ -2584,14 +2899,14 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2599,14 +2914,14 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="22" t="s">
         <v>32</v>
       </c>
@@ -2618,14 +2933,14 @@
       <c r="L16" s="42"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="22" t="s">
         <v>31</v>
       </c>
@@ -2640,7 +2955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2666,7 +2981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2687,12 +3002,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="79" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="37"/>
@@ -2712,14 +3027,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -2727,7 +3042,7 @@
       <c r="H21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="76">
         <f>I20+D18-I16+F24</f>
         <v>13018.604899999966</v>
       </c>
@@ -2738,14 +3053,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31">
         <v>43297.15</v>
       </c>
       <c r="B22" s="31">
         <v>35182.284959999968</v>
       </c>
-      <c r="C22" s="77"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="11"/>
       <c r="E22" s="27"/>
       <c r="F22" s="11"/>
@@ -2753,7 +3068,7 @@
       <c r="H22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="73"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="20"/>
       <c r="K22" s="11"/>
       <c r="L22" s="34">
@@ -2764,7 +3079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="32" t="s">
         <v>28</v>
       </c>
@@ -2772,7 +3087,7 @@
         <f>A22+B22</f>
         <v>78479.43495999997</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="11"/>
       <c r="E23" s="27"/>
       <c r="F23" s="11"/>
@@ -2789,7 +3104,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="28"/>
       <c r="C24" s="25"/>
@@ -2806,16 +3121,16 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="25"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="79" t="s">
+      <c r="F25" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="22" t="s">
         <v>32</v>
       </c>
@@ -2827,14 +3142,14 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="25"/>
       <c r="D26" s="24"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
       <c r="H26" s="22" t="s">
         <v>31</v>
       </c>
@@ -2844,14 +3159,14 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="20"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="22" t="s">
         <v>30</v>
       </c>
@@ -2863,7 +3178,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2882,7 +3197,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2901,20 +3216,20 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="74"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="73">
+      <c r="I30" s="76">
         <f>I29-I25</f>
         <v>6906.1040600000124</v>
       </c>
@@ -2923,29 +3238,29 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="73"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="14"/>
       <c r="K31" s="11"/>
       <c r="L31" s="18"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="17">
         <v>1256.9000000000001</v>
       </c>
@@ -2962,12 +3277,12 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
       <c r="G33" s="11"/>
       <c r="H33" s="13"/>
       <c r="I33" s="12"/>
@@ -2976,10 +3291,10 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I34" s="10"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H36" s="10"/>
     </row>
   </sheetData>
@@ -3005,16 +3320,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7F0BDB-3618-426B-8823-CB18320D3850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A1" s="61" t="s">
         <v>53</v>
       </c>
@@ -3031,7 +3346,7 @@
       <c r="L1" s="58"/>
       <c r="M1" s="62"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="57"/>
       <c r="B2" s="56"/>
       <c r="C2" s="59"/>
@@ -3046,7 +3361,7 @@
       <c r="L2" s="58"/>
       <c r="M2" s="58"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="60"/>
       <c r="B3" s="63" t="s">
         <v>54</v>
@@ -3088,7 +3403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="67" t="s">
         <v>66</v>
       </c>
@@ -3133,7 +3448,7 @@
         <v>137.15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="67" t="s">
         <v>67</v>
       </c>
@@ -3178,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="67" t="s">
         <v>68</v>
       </c>
@@ -3226,7 +3541,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="65" t="s">
         <v>69</v>
       </c>
@@ -3282,14 +3597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894CB6B5-5F20-4267-AAF8-5CEE77BD676D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3297,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3307,13 +3622,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.21875" style="2" customWidth="1"/>
-    <col min="2" max="35" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.19921875" style="2" customWidth="1"/>
+    <col min="2" max="35" width="11.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -3420,7 +3735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3527,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3634,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3848,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -3955,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -4169,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -4276,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4383,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4490,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4597,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4704,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4811,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -4918,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -5025,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -5138,20 +5453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
@@ -5258,7 +5573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5402,4 +5717,524 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(B1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.96883789150462</v>
+      </c>
+      <c r="C2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(C1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.339039617877859</v>
+      </c>
+      <c r="D2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(D1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.71790629819175</v>
+      </c>
+      <c r="E2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(E1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.483846209484824</v>
+      </c>
+      <c r="F2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(F1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.501380914363708</v>
+      </c>
+      <c r="G2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(G1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.081950221767329</v>
+      </c>
+      <c r="H2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(H1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.333921289662243</v>
+      </c>
+      <c r="I2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(I1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>95.403083002388286</v>
+      </c>
+      <c r="J2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(J1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>95.900937024906185</v>
+      </c>
+      <c r="K2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(K1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>95.521107813033112</v>
+      </c>
+      <c r="L2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(L1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.962651006482432</v>
+      </c>
+      <c r="M2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(M1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.782121194131705</v>
+      </c>
+      <c r="N2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(N1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.395185172296138</v>
+      </c>
+      <c r="O2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(O1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.962627110201311</v>
+      </c>
+      <c r="P2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(P1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.2823711907199</v>
+      </c>
+      <c r="Q2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(Q1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.354222006141256</v>
+      </c>
+      <c r="R2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(R1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.815641815080184</v>
+      </c>
+      <c r="S2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(S1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.530081521664968</v>
+      </c>
+      <c r="T2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(T1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.219995093824636</v>
+      </c>
+      <c r="U2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(U1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.370825363357227</v>
+      </c>
+      <c r="V2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(V1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.092590167178443</v>
+      </c>
+      <c r="W2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(W1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.598811879904474</v>
+      </c>
+      <c r="X2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(X1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.436674329580356</v>
+      </c>
+      <c r="Y2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(Y1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.201494738996928</v>
+      </c>
+      <c r="Z2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(Z1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.907932657795982</v>
+      </c>
+      <c r="AA2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AA1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.870331115660193</v>
+      </c>
+      <c r="AB2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AB1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.676616751961788</v>
+      </c>
+      <c r="AC2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AC1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.41055574889117</v>
+      </c>
+      <c r="AD2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AD1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.429624701467091</v>
+      </c>
+      <c r="AE2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AE1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.189496226543838</v>
+      </c>
+      <c r="AF2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AF1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>90.776400034118055</v>
+      </c>
+      <c r="AG2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AG1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>90.508617679972701</v>
+      </c>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B3" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(B1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.96883789150462</v>
+      </c>
+      <c r="C2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(C1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.339039617877859</v>
+      </c>
+      <c r="D2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(D1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.71790629819175</v>
+      </c>
+      <c r="E2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(E1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.483846209484824</v>
+      </c>
+      <c r="F2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(F1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.501380914363708</v>
+      </c>
+      <c r="G2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(G1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.081950221767329</v>
+      </c>
+      <c r="H2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(H1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.333921289662243</v>
+      </c>
+      <c r="I2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(I1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>95.403083002388286</v>
+      </c>
+      <c r="J2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(J1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>95.900937024906185</v>
+      </c>
+      <c r="K2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(K1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>95.521107813033112</v>
+      </c>
+      <c r="L2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(L1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.962651006482432</v>
+      </c>
+      <c r="M2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(M1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.782121194131705</v>
+      </c>
+      <c r="N2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(N1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.395185172296138</v>
+      </c>
+      <c r="O2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(O1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.962627110201311</v>
+      </c>
+      <c r="P2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(P1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.2823711907199</v>
+      </c>
+      <c r="Q2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(Q1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>94.354222006141256</v>
+      </c>
+      <c r="R2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(R1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.815641815080184</v>
+      </c>
+      <c r="S2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(S1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.530081521664968</v>
+      </c>
+      <c r="T2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(T1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.219995093824636</v>
+      </c>
+      <c r="U2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(U1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.370825363357227</v>
+      </c>
+      <c r="V2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(V1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>93.092590167178443</v>
+      </c>
+      <c r="W2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(W1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.598811879904474</v>
+      </c>
+      <c r="X2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(X1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.436674329580356</v>
+      </c>
+      <c r="Y2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(Y1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>92.201494738996928</v>
+      </c>
+      <c r="Z2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(Z1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.907932657795982</v>
+      </c>
+      <c r="AA2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AA1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.870331115660193</v>
+      </c>
+      <c r="AB2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AB1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.676616751961788</v>
+      </c>
+      <c r="AC2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AC1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.41055574889117</v>
+      </c>
+      <c r="AD2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AD1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.429624701467091</v>
+      </c>
+      <c r="AE2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AE1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>91.189496226543838</v>
+      </c>
+      <c r="AF2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AF1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>90.776400034118055</v>
+      </c>
+      <c r="AG2" s="88">
+        <f>INDEX('[1]AEO Table 3'!67:67,MATCH(AG1,'[1]AEO Table 3'!1:1,0))/10^6*[1]About!$A$52/[1]About!$A$51</f>
+        <v>90.508617679972701</v>
+      </c>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>